--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,30 +12,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>apartment_id</t>
   </si>
   <si>
+    <t>apartmentIndex</t>
+  </si>
+  <si>
     <t>floor</t>
   </si>
   <si>
     <t>building</t>
   </si>
   <si>
+    <t>num_rooms</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
     <t>area</t>
   </si>
   <si>
+    <t>rent_price</t>
+  </si>
+  <si>
     <t>purchase_price</t>
   </si>
   <si>
-    <t>rental_price</t>
-  </si>
-  <si>
-    <t>num_rooms</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Đã thuê</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>5200000.00</t>
+  </si>
+  <si>
+    <t>4000000000.00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Đã bán</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>6000000.00</t>
+  </si>
+  <si>
+    <t>5500000000.00</t>
   </si>
 </sst>
 </file>
@@ -80,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -111,6 +159,67 @@
       <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>apartment_id</t>
   </si>
@@ -56,13 +56,13 @@
     <t>Đã thuê</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>5200000.00</t>
-  </si>
-  <si>
-    <t>4000000000.00</t>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>6500000.00</t>
+  </si>
+  <si>
+    <t>4500000000.00</t>
   </si>
   <si>
     <t>2</t>
@@ -71,19 +71,22 @@
     <t>7</t>
   </si>
   <si>
-    <t>B</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Đã bán</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>6000000.00</t>
-  </si>
-  <si>
-    <t>5500000000.00</t>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>8000000.00</t>
+  </si>
+  <si>
+    <t>6500000000.00</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>10</v>
@@ -197,28 +200,28 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>apartment_id</t>
   </si>
@@ -87,6 +87,27 @@
   </si>
   <si>
     <t>6500000000.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>6000000.00</t>
+  </si>
+  <si>
+    <t>4200000000.00</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>7200000.00</t>
   </si>
 </sst>
 </file>
@@ -131,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -224,6 +245,64 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>apartment_id</t>
   </si>
@@ -41,22 +41,91 @@
     <t>purchase_price</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>8</t>
+    <t>3</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Đã thuê</t>
   </si>
   <si>
-    <t>62.00</t>
+    <t>75.50</t>
+  </si>
+  <si>
+    <t>5000000.00</t>
+  </si>
+  <si>
+    <t>2700000000.00</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>6000000.00</t>
+  </si>
+  <si>
+    <t>3700000000.00</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Đã bán</t>
+  </si>
+  <si>
+    <t>95.75</t>
+  </si>
+  <si>
+    <t>8000000.00</t>
+  </si>
+  <si>
+    <t>6000000000.00</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>6600000.00</t>
+  </si>
+  <si>
+    <t>3600000000.00</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>65.00</t>
   </si>
   <si>
     <t>6500000.00</t>
@@ -65,49 +134,49 @@
     <t>4500000000.00</t>
   </si>
   <si>
-    <t>2</t>
+    <t>106</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>4200000000.00</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Đã bán</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
-    <t>8000000.00</t>
-  </si>
-  <si>
-    <t>6500000000.00</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>6000000.00</t>
-  </si>
-  <si>
-    <t>4200000000.00</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Trống</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>7200000.00</t>
+    <t>7000000.00</t>
+  </si>
+  <si>
+    <t>7000000000.00</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>5600000000.00</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5500000000.00</t>
   </si>
 </sst>
 </file>
@@ -152,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,112 +264,257 @@
         <v>10</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="H3" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>27</v>
+      <c r="E10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>apartment_id</t>
   </si>
@@ -95,88 +95,106 @@
     <t>Đã bán</t>
   </si>
   <si>
-    <t>95.75</t>
+    <t>75.72</t>
+  </si>
+  <si>
+    <t>8000000.52</t>
+  </si>
+  <si>
+    <t>6000000000.00</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>6600000.00</t>
+  </si>
+  <si>
+    <t>3600000000.00</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>6500000.00</t>
+  </si>
+  <si>
+    <t>4500000000.00</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>4200000000.00</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>7000000.00</t>
+  </si>
+  <si>
+    <t>7000000000.00</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>7000000.55</t>
+  </si>
+  <si>
+    <t>5600000000.00</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>55.55</t>
+  </si>
+  <si>
+    <t>5500000000.00</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>75.56</t>
   </si>
   <si>
     <t>8000000.00</t>
-  </si>
-  <si>
-    <t>6000000000.00</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Trống</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>6600000.00</t>
-  </si>
-  <si>
-    <t>3600000000.00</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>6500000.00</t>
-  </si>
-  <si>
-    <t>4500000000.00</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>4200000000.00</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>7000000.00</t>
-  </si>
-  <si>
-    <t>7000000000.00</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>5600000000.00</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>5500000000.00</t>
   </si>
 </sst>
 </file>
@@ -221,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -482,21 +500,21 @@
         <v>50</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>10</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>12</v>
@@ -508,13 +526,42 @@
         <v>14</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>apartment_id</t>
   </si>
@@ -29,12 +29,6 @@
     <t>num_rooms</t>
   </si>
   <si>
-    <t>num_wcs</t>
-  </si>
-  <si>
-    <t>interior</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -47,67 +41,160 @@
     <t>purchase_price</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Cơ bản</t>
+    <t>Đã thuê</t>
+  </si>
+  <si>
+    <t>75.50</t>
+  </si>
+  <si>
+    <t>5000000.00</t>
+  </si>
+  <si>
+    <t>2700000000.00</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>6000000.00</t>
+  </si>
+  <si>
+    <t>3700000000.00</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Đã bán</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>10000000.00</t>
+    <t>75.72</t>
+  </si>
+  <si>
+    <t>8000000.52</t>
+  </si>
+  <si>
+    <t>6000000000.00</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>6600000.00</t>
+  </si>
+  <si>
+    <t>3600000000.00</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>6500000.00</t>
+  </si>
+  <si>
+    <t>4500000000.00</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>4200000000.00</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>7000000.00</t>
   </si>
   <si>
     <t>7000000000.00</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Đầy đủ</t>
-  </si>
-  <si>
-    <t>Đã thuê</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>15000000.00</t>
-  </si>
-  <si>
-    <t>2000000000.00</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Trống</t>
-  </si>
-  <si>
-    <t>Chờ duyệt</t>
-  </si>
-  <si>
-    <t>55.00</t>
+    <t>108</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>7000000.55</t>
+  </si>
+  <si>
+    <t>5600000000.00</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>55.55</t>
+  </si>
+  <si>
+    <t>5500000000.00</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>75.56</t>
   </si>
   <si>
     <t>8000000.00</t>
-  </si>
-  <si>
-    <t>1000000000.00</t>
   </si>
 </sst>
 </file>
@@ -152,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -186,66 +273,54 @@
       <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="0">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>12</v>
-      </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
       <c r="E3" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>20</v>
@@ -256,31 +331,25 @@
       <c r="I3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="J3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>24</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>27</v>
@@ -291,11 +360,208 @@
       <c r="I4" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="J4" t="s" s="0">
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>31</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>apartment_id</t>
   </si>
@@ -50,64 +50,67 @@
     <t>1</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Đầy đủ</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>10000000.00</t>
+  </si>
+  <si>
+    <t>1500000000.00</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Cơ bản</t>
   </si>
   <si>
-    <t>Đã bán</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>10000000.00</t>
-  </si>
-  <si>
-    <t>7000000000.00</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Đầy đủ</t>
-  </si>
-  <si>
     <t>Đã thuê</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>15000000.00</t>
-  </si>
-  <si>
-    <t>2000000000.00</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Trống</t>
-  </si>
-  <si>
-    <t>Chờ duyệt</t>
-  </si>
-  <si>
-    <t>55.00</t>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>12000000.00</t>
+  </si>
+  <si>
+    <t>1800000000.00</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Bảo trì</t>
+  </si>
+  <si>
+    <t>50.00</t>
   </si>
   <si>
     <t>8000000.00</t>
   </si>
   <si>
-    <t>1000000000.00</t>
+    <t>1200000000.00</t>
   </si>
 </sst>
 </file>
@@ -198,83 +201,83 @@
         <v>11</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>11</v>
@@ -283,19 +286,19 @@
         <v>11</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>apartment_id</t>
   </si>
@@ -47,70 +47,34 @@
     <t>purchase_price</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Đầy đủ</t>
   </si>
   <si>
-    <t>Trống</t>
-  </si>
-  <si>
-    <t>70.50</t>
-  </si>
-  <si>
-    <t>10000000.00</t>
+    <t>Đã thuê</t>
+  </si>
+  <si>
+    <t>75.50</t>
+  </si>
+  <si>
+    <t>12000000.00</t>
   </si>
   <si>
     <t>1500000000.00</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Cơ bản</t>
-  </si>
-  <si>
-    <t>Đã thuê</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>12000000.00</t>
-  </si>
-  <si>
-    <t>1800000000.00</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>Bảo trì</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>8000000.00</t>
-  </si>
-  <si>
-    <t>1200000000.00</t>
   </si>
 </sst>
 </file>
@@ -155,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -204,101 +168,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="F2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>apartment_id</t>
   </si>
@@ -47,34 +47,109 @@
     <t>purchase_price</t>
   </si>
   <si>
-    <t>101</t>
+    <t>102</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Đầy đủ</t>
+  </si>
+  <si>
+    <t>Đã thuê</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>15000000.00</t>
+  </si>
+  <si>
+    <t>1800000000.00</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Cơ bản</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>10000000.00</t>
+  </si>
+  <si>
+    <t>1400000000.00</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Đầy đủ</t>
-  </si>
-  <si>
-    <t>Đã thuê</t>
-  </si>
-  <si>
-    <t>75.50</t>
-  </si>
-  <si>
-    <t>12000000.00</t>
-  </si>
-  <si>
-    <t>1500000000.00</t>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>20000000.00</t>
+  </si>
+  <si>
+    <t>2500000000.00</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>9000000.00</t>
+  </si>
+  <si>
+    <t>1300000000.00</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>17000000.00</t>
+  </si>
+  <si>
+    <t>2000000000.00</t>
   </si>
 </sst>
 </file>
@@ -119,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,6 +270,146 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/apartmentManage/Data/apartments.xlsx
+++ b/apartmentManage/Data/apartments.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>apartment_id</t>
   </si>
@@ -150,6 +150,45 @@
   </si>
   <si>
     <t>2000000000.00</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>7000000.00</t>
+  </si>
+  <si>
+    <t>3500000000.00</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>6500000.00</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>7800000.00</t>
+  </si>
+  <si>
+    <t>5000000000.00</t>
   </si>
 </sst>
 </file>
@@ -194,7 +233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -410,6 +449,181 @@
         <v>45</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
